--- a/CodigoFuente/x32/Librerias.xlsx
+++ b/CodigoFuente/x32/Librerias.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Orbita" sheetId="1" r:id="rId1"/>
-    <sheet name="OrbitaVA" sheetId="2" r:id="rId2"/>
+    <sheet name="Orbita.VA" sheetId="4" r:id="rId2"/>
     <sheet name="OrbitaControles" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Orbita!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Orbita.VA!$B$2:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
   <si>
     <t>IBM.Data.DB2.dll</t>
   </si>
@@ -134,6 +135,114 @@
   <si>
     <t>Librería para comunicar con los dispositivos E/S Mdaq 
 Actualmente se utiliza para el PDiso16(ethernet)</t>
+  </si>
+  <si>
+    <t>CIDARMTWrapper</t>
+  </si>
+  <si>
+    <t>Orbita.VA.Funciones</t>
+  </si>
+  <si>
+    <t>VPARMTWrapper</t>
+  </si>
+  <si>
+    <t>3.3.4.0</t>
+  </si>
+  <si>
+    <t>3.6.29.5</t>
+  </si>
+  <si>
+    <t>Wrapper de la librería de Cidar</t>
+  </si>
+  <si>
+    <t>Wrapper de la librería de Vpar</t>
+  </si>
+  <si>
+    <t>Cognex.VisionPro</t>
+  </si>
+  <si>
+    <t>45.0.0.0</t>
+  </si>
+  <si>
+    <t>Cognex VisionPro Core</t>
+  </si>
+  <si>
+    <t>Cognex.VisionPro.ToolGroup</t>
+  </si>
+  <si>
+    <t>Librería de VisionPro - General</t>
+  </si>
+  <si>
+    <t>Librería de VisionPro - Nucleo</t>
+  </si>
+  <si>
+    <t>Librería de VisionPro - Herramienta ToolGroup</t>
+  </si>
+  <si>
+    <t>Cognex VisionPro FGGigE</t>
+  </si>
+  <si>
+    <t>Librería de VisionPro - Conectividad con cámara GigE</t>
+  </si>
+  <si>
+    <t>Orbita.VA.Hardware</t>
+  </si>
+  <si>
+    <t>Cognex VisionPro ImageFile</t>
+  </si>
+  <si>
+    <t>Librería de VisionPro - Trabajo con imágenes de VisionPro</t>
+  </si>
+  <si>
+    <t>AForge.Video.FFMPEG</t>
+  </si>
+  <si>
+    <t>2.2.4.0</t>
+  </si>
+  <si>
+    <t>Librería Aforge - Trabajo con Video MPEG (Provisional)</t>
+  </si>
+  <si>
+    <t>MccDaq</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>PylonC.NET</t>
+  </si>
+  <si>
+    <t>2.2.1.2148</t>
+  </si>
+  <si>
+    <t>PylonC.NETSupportLibrary</t>
+  </si>
+  <si>
+    <t>1.0.0.0</t>
+  </si>
+  <si>
+    <t>SDK de Basler - Nucleo</t>
+  </si>
+  <si>
+    <t>SDK de Basler - Utilidades</t>
+  </si>
+  <si>
+    <t>Se intentará sustituir por OpenCV</t>
+  </si>
+  <si>
+    <t>Los dipositivos de Meassurement Computing pasarán a ser manejados medinate el serivcio de comunicación</t>
+  </si>
+  <si>
+    <t>Librería para comunicar con los dispositivos E/S Meassurement Computing (Provisional)</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Instalar la versión 7.1 de VisionPro + mochila</t>
+  </si>
+  <si>
+    <t>Es necesario mochila</t>
   </si>
 </sst>
 </file>
@@ -494,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -700,12 +809,327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:F2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/CodigoFuente/x32/Librerias.xlsx
+++ b/CodigoFuente/x32/Librerias.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Orbita" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Orbita!$B$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Orbita.VA!$B$2:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -133,10 +133,6 @@
     <t>Orbita.Comunicaciones</t>
   </si>
   <si>
-    <t>Librería para comunicar con los dispositivos E/S Mdaq 
-Actualmente se utiliza para el PDiso16(ethernet)</t>
-  </si>
-  <si>
     <t>CIDARMTWrapper</t>
   </si>
   <si>
@@ -243,6 +239,9 @@
   </si>
   <si>
     <t>Es necesario mochila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Librería para comunicar con los dispositivos E/S Mdaq </t>
   </si>
 </sst>
 </file>
@@ -603,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -732,7 +731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="30">
+    <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -746,7 +745,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -811,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -841,232 +840,232 @@
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>29</v>
@@ -1075,48 +1074,48 @@
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="1"/>
     </row>

--- a/CodigoFuente/x32/Librerias.xlsx
+++ b/CodigoFuente/x32/Librerias.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Orbita!$B$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Orbita.VA!$B$2:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
   <si>
     <t>IBM.Data.DB2.dll</t>
   </si>
@@ -242,15 +242,6 @@
   </si>
   <si>
     <t xml:space="preserve">Librería para comunicar con los dispositivos E/S Mdaq </t>
-  </si>
-  <si>
-    <t>System.Data.SQLite</t>
-  </si>
-  <si>
-    <t>1.0.85.0</t>
-  </si>
-  <si>
-    <t>Librería para comunicar con bases de datos SQLite</t>
   </si>
 </sst>
 </file>
@@ -609,9 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -740,47 +733,47 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>73</v>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>36</v>
@@ -791,35 +784,18 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/CodigoFuente/x32/Librerias.xlsx
+++ b/CodigoFuente/x32/Librerias.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Orbita!$B$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Orbita.VA!$B$2:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
   <si>
     <t>IBM.Data.DB2.dll</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t xml:space="preserve">Librería para comunicar con los dispositivos E/S Mdaq </t>
+  </si>
+  <si>
+    <t>System.Data.SQLite</t>
+  </si>
+  <si>
+    <t>1.0.85.0</t>
+  </si>
+  <si>
+    <t>Librería para comunicar con bases de datos SQLite</t>
   </si>
 </sst>
 </file>
@@ -600,11 +609,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -733,47 +740,47 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
+      <c r="F10" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>36</v>
@@ -784,18 +791,35 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
